--- a/Doc/引脚分配.xlsx
+++ b/Doc/引脚分配.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\WorkSpace\Software\FOC_Controller\Doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9D9125-403F-49F9-844D-CD7DC4FC8BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="13545" windowHeight="12525"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="20580" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="STM32F103" sheetId="1" r:id="rId1"/>
+    <sheet name="GD32F303" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
   <si>
     <t>引脚</t>
   </si>
@@ -224,19 +231,129 @@
   </si>
   <si>
     <t>LED_RGB</t>
+  </si>
+  <si>
+    <t>PWM_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM0_CH0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM0_CH1</t>
+  </si>
+  <si>
+    <t>TIM0_CH2</t>
+  </si>
+  <si>
+    <t>38-41</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART1_TX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART1_RX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAN0_RX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAN0_TX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B10</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>USART2_TX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>USART</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_RX</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,151 +362,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -402,194 +396,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -597,311 +405,26 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1159,27 +682,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.4083333333333" customWidth="1"/>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="2" max="3" width="16.375" customWidth="1"/>
     <col min="7" max="7" width="13.875" customWidth="1"/>
     <col min="8" max="8" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1196,7 +718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1210,7 +732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1224,7 +746,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1238,7 +760,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1252,7 +774,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1266,7 +788,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1274,7 +796,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1282,7 +804,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -1290,7 +812,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1298,7 +820,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1306,7 +828,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1314,7 +836,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1322,7 +844,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1330,7 +852,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -1338,7 +860,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -1346,12 +868,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -1359,7 +881,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -1367,27 +889,27 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -1395,7 +917,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -1403,17 +925,17 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -1421,7 +943,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -1429,7 +951,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -1437,17 +959,17 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>68</v>
       </c>
@@ -1456,8 +978,119 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89351E9-88E7-4EAD-8426-6AE185DDCA36}">
+  <dimension ref="B1:F13"/>
+  <sheetViews>
+    <sheetView topLeftCell="B4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>